--- a/occupations/occupations_unified.xlsx
+++ b/occupations/occupations_unified.xlsx
@@ -482,7 +482,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>1</v>
+        <v>0.95</v>
       </c>
       <c r="D2" t="inlineStr">
         <is>
@@ -496,200 +496,200 @@
         <v>1</v>
       </c>
       <c r="G2" t="n">
-        <v>2.058823529411764</v>
+        <v>2.008823529411765</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>secretary</t>
+          <t>lifeguard</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>titkár</t>
+          <t>vízimentő</t>
         </is>
       </c>
       <c r="C3" t="n">
-        <v>-0.1052631578947368</v>
+        <v>-1.1</v>
       </c>
       <c r="D3" t="inlineStr">
         <is>
-          <t>秘书</t>
+          <t>救生员</t>
         </is>
       </c>
       <c r="E3" t="n">
-        <v>1.411764705882353</v>
+        <v>-1.764705882352941</v>
       </c>
       <c r="F3" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G3" t="n">
-        <v>1.51702786377709</v>
+        <v>0.664705882352941</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>waiter</t>
+          <t>scientist</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>pincér</t>
+          <t>tudós</t>
         </is>
       </c>
       <c r="C4" t="n">
-        <v>-0.4210526315789473</v>
+        <v>-0.4</v>
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>服务员</t>
+          <t>科学家</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>0.8823529411764706</v>
+        <v>-1.058823529411765</v>
       </c>
       <c r="F4" t="b">
         <v>1</v>
       </c>
       <c r="G4" t="n">
-        <v>1.303405572755418</v>
+        <v>0.6588235294117647</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>teacher</t>
+          <t>police officer</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
         <is>
-          <t>tanár</t>
+          <t>rendőr</t>
         </is>
       </c>
       <c r="C5" t="n">
-        <v>0.05263157894736842</v>
+        <v>-1.3</v>
       </c>
       <c r="D5" t="inlineStr">
         <is>
-          <t>教师</t>
+          <t>警察</t>
         </is>
       </c>
       <c r="E5" t="n">
-        <v>1.117647058823529</v>
+        <v>-1.882352941176471</v>
       </c>
       <c r="F5" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G5" t="n">
-        <v>1.065015479876161</v>
+        <v>0.5823529411764705</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>receptionist</t>
+          <t>chef</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>recepciós</t>
+          <t>szakács</t>
         </is>
       </c>
       <c r="C6" t="n">
-        <v>0.7368421052631579</v>
+        <v>-1</v>
       </c>
       <c r="D6" t="inlineStr">
         <is>
-          <t>前台</t>
+          <t>厨师</t>
         </is>
       </c>
       <c r="E6" t="n">
-        <v>1.588235294117647</v>
+        <v>-1.529411764705882</v>
       </c>
       <c r="F6" t="b">
         <v>1</v>
       </c>
       <c r="G6" t="n">
-        <v>0.8513931888544891</v>
+        <v>0.5294117647058822</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>ticketseller</t>
+          <t>architect</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>jegyárus</t>
+          <t>építész</t>
         </is>
       </c>
       <c r="C7" t="n">
-        <v>0.2105263157894737</v>
+        <v>-1.25</v>
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>售票员</t>
+          <t>建筑师</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>1</v>
+        <v>-1.764705882352941</v>
       </c>
       <c r="F7" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G7" t="n">
-        <v>0.7894736842105263</v>
+        <v>0.5147058823529411</v>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>lifeguard</t>
+          <t>housekeeper</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>vízimentő</t>
+          <t>házvezető</t>
         </is>
       </c>
       <c r="C8" t="n">
-        <v>-1.105263157894737</v>
+        <v>1.7</v>
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>救生员</t>
+          <t>家政员</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>-1.764705882352941</v>
+        <v>1.235294117647059</v>
       </c>
       <c r="F8" t="b">
         <v>1</v>
       </c>
       <c r="G8" t="n">
-        <v>0.6594427244582042</v>
+        <v>0.4647058823529411</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>scientist</t>
+          <t>prosecutor</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>tudós</t>
+          <t>ügyész</t>
         </is>
       </c>
       <c r="C9" t="n">
-        <v>-0.4210526315789473</v>
+        <v>-0.65</v>
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>科学家</t>
+          <t>检察官</t>
         </is>
       </c>
       <c r="E9" t="n">
@@ -699,848 +699,848 @@
         <v>1</v>
       </c>
       <c r="G9" t="n">
-        <v>0.6377708978328174</v>
+        <v>0.4088235294117647</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>police officer</t>
+          <t>engineer</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>rendőr</t>
+          <t>mérnök</t>
         </is>
       </c>
       <c r="C10" t="n">
-        <v>-1.315789473684211</v>
+        <v>-1.05</v>
       </c>
       <c r="D10" t="inlineStr">
         <is>
-          <t>警察</t>
+          <t>工程师</t>
         </is>
       </c>
       <c r="E10" t="n">
-        <v>-1.882352941176471</v>
+        <v>-1.352941176470588</v>
       </c>
       <c r="F10" t="b">
         <v>1</v>
       </c>
       <c r="G10" t="n">
-        <v>0.5665634674922599</v>
+        <v>0.3029411764705883</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>housekeeper</t>
+          <t>flight attendant</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>házvezető</t>
+          <t>légiutas-kísérő</t>
         </is>
       </c>
       <c r="C11" t="n">
-        <v>1.789473684210526</v>
+        <v>1.4</v>
       </c>
       <c r="D11" t="inlineStr">
         <is>
-          <t>家政员</t>
+          <t>乘务员</t>
         </is>
       </c>
       <c r="E11" t="n">
-        <v>1.235294117647059</v>
+        <v>1.117647058823529</v>
       </c>
       <c r="F11" t="b">
         <v>1</v>
       </c>
       <c r="G11" t="n">
-        <v>0.5541795665634675</v>
+        <v>0.2823529411764705</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>architect</t>
+          <t>beautician</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>építész</t>
+          <t>kozmetikus</t>
         </is>
       </c>
       <c r="C12" t="n">
-        <v>-1.263157894736842</v>
+        <v>2.15</v>
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>建筑师</t>
+          <t>美容师</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>-1.764705882352941</v>
+        <v>1.882352941176471</v>
       </c>
       <c r="F12" t="b">
         <v>1</v>
       </c>
       <c r="G12" t="n">
-        <v>0.5015479876160991</v>
+        <v>0.2676470588235293</v>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>chef</t>
+          <t>nurse</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>szakács</t>
+          <t>nővér</t>
         </is>
       </c>
       <c r="C13" t="n">
-        <v>-1.052631578947368</v>
+        <v>2.2</v>
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>厨师</t>
+          <t>护士</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>-1.529411764705882</v>
+        <v>1.941176470588235</v>
       </c>
       <c r="F13" t="b">
         <v>1</v>
       </c>
       <c r="G13" t="n">
-        <v>0.4767801857585139</v>
+        <v>0.2588235294117649</v>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>cashier</t>
+          <t>director</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>pénztáros</t>
+          <t>rendező</t>
         </is>
       </c>
       <c r="C14" t="n">
-        <v>1.052631578947368</v>
+        <v>-0.75</v>
       </c>
       <c r="D14" t="inlineStr">
         <is>
-          <t>收银员</t>
+          <t>导演</t>
         </is>
       </c>
       <c r="E14" t="n">
-        <v>1.529411764705882</v>
+        <v>-1</v>
       </c>
       <c r="F14" t="b">
         <v>1</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4767801857585139</v>
+        <v>0.25</v>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>prosecutor</t>
+          <t>worker</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>ügyész</t>
+          <t>munkás</t>
         </is>
       </c>
       <c r="C15" t="n">
-        <v>-0.6842105263157895</v>
+        <v>-1.35</v>
       </c>
       <c r="D15" t="inlineStr">
         <is>
-          <t>检察官</t>
+          <t>工人</t>
         </is>
       </c>
       <c r="E15" t="n">
-        <v>-1.058823529411765</v>
+        <v>-1.588235294117647</v>
       </c>
       <c r="F15" t="b">
         <v>1</v>
       </c>
       <c r="G15" t="n">
-        <v>0.3746130030959752</v>
+        <v>0.2382352941176469</v>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>beautician</t>
+          <t>doctor</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>kozmetikus</t>
+          <t>orvos</t>
         </is>
       </c>
       <c r="C16" t="n">
-        <v>2.210526315789474</v>
+        <v>-0.5</v>
       </c>
       <c r="D16" t="inlineStr">
         <is>
-          <t>美容师</t>
+          <t>医生</t>
         </is>
       </c>
       <c r="E16" t="n">
-        <v>1.882352941176471</v>
+        <v>-0.7058823529411765</v>
       </c>
       <c r="F16" t="b">
         <v>1</v>
       </c>
       <c r="G16" t="n">
-        <v>0.3281733746130033</v>
+        <v>0.2058823529411765</v>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>PR specialist</t>
+          <t>manager</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>PR munkatárs</t>
+          <t>menedzser</t>
         </is>
       </c>
       <c r="C17" t="n">
-        <v>0.2631578947368421</v>
+        <v>-0.6</v>
       </c>
       <c r="D17" t="inlineStr">
         <is>
-          <t>公关</t>
+          <t>高管</t>
         </is>
       </c>
       <c r="E17" t="n">
-        <v>0.5882352941176471</v>
+        <v>-0.7647058823529411</v>
       </c>
       <c r="F17" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G17" t="n">
-        <v>0.325077399380805</v>
+        <v>0.1647058823529411</v>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>flight attendant</t>
+          <t>security guard</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>légiutas-kísérő</t>
+          <t>biztonsági őr</t>
         </is>
       </c>
       <c r="C18" t="n">
-        <v>1.421052631578947</v>
+        <v>-1.9</v>
       </c>
       <c r="D18" t="inlineStr">
         <is>
-          <t>乘务员</t>
+          <t>保安</t>
         </is>
       </c>
       <c r="E18" t="n">
-        <v>1.117647058823529</v>
+        <v>-2.058823529411764</v>
       </c>
       <c r="F18" t="b">
         <v>1</v>
       </c>
       <c r="G18" t="n">
-        <v>0.3034055727554179</v>
+        <v>0.1588235294117646</v>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>engineer</t>
+          <t>programmer</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>mérnök</t>
+          <t>programozó</t>
         </is>
       </c>
       <c r="C19" t="n">
-        <v>-1.052631578947368</v>
+        <v>-1.35</v>
       </c>
       <c r="D19" t="inlineStr">
         <is>
-          <t>工程师</t>
+          <t>程序员</t>
         </is>
       </c>
       <c r="E19" t="n">
-        <v>-1.352941176470588</v>
+        <v>-1.470588235294118</v>
       </c>
       <c r="F19" t="b">
         <v>1</v>
       </c>
       <c r="G19" t="n">
-        <v>0.30030959752322</v>
+        <v>0.1205882352941177</v>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>shop assistant</t>
+          <t>judge</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>bolti eladó</t>
+          <t>bíró</t>
         </is>
       </c>
       <c r="C20" t="n">
-        <v>1</v>
+        <v>-0.25</v>
       </c>
       <c r="D20" t="inlineStr">
         <is>
-          <t>导购员</t>
+          <t>法官</t>
         </is>
       </c>
       <c r="E20" t="n">
-        <v>1.294117647058824</v>
+        <v>-0.3529411764705883</v>
       </c>
       <c r="F20" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G20" t="n">
-        <v>0.2941176470588236</v>
+        <v>0.1029411764705883</v>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>worker</t>
+          <t>dietitian</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>munkás</t>
+          <t>dietetikus</t>
         </is>
       </c>
       <c r="C21" t="n">
-        <v>-1.315789473684211</v>
+        <v>0.65</v>
       </c>
       <c r="D21" t="inlineStr">
         <is>
-          <t>工人</t>
+          <t>营养师</t>
         </is>
       </c>
       <c r="E21" t="n">
-        <v>-1.588235294117647</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="F21" t="b">
         <v>1</v>
       </c>
       <c r="G21" t="n">
-        <v>0.2724458204334363</v>
+        <v>0.06176470588235294</v>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>nurse</t>
+          <t>CEO</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>nővér</t>
+          <t>vezérigazgató</t>
         </is>
       </c>
       <c r="C22" t="n">
-        <v>2.210526315789474</v>
+        <v>-1.2</v>
       </c>
       <c r="D22" t="inlineStr">
         <is>
-          <t>护士</t>
+          <t>董事长</t>
         </is>
       </c>
       <c r="E22" t="n">
-        <v>1.941176470588235</v>
+        <v>-1.235294117647059</v>
       </c>
       <c r="F22" t="b">
         <v>1</v>
       </c>
       <c r="G22" t="n">
-        <v>0.2693498452012386</v>
+        <v>0.03529411764705892</v>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>professor</t>
+          <t>pathologist</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>professzor</t>
+          <t>kórboncnok</t>
         </is>
       </c>
       <c r="C23" t="n">
-        <v>-0.8947368421052632</v>
+        <v>-0.8</v>
       </c>
       <c r="D23" t="inlineStr">
         <is>
-          <t>教授</t>
+          <t>法医</t>
         </is>
       </c>
       <c r="E23" t="n">
-        <v>-0.6470588235294118</v>
+        <v>-0.8235294117647058</v>
       </c>
       <c r="F23" t="b">
         <v>1</v>
       </c>
       <c r="G23" t="n">
-        <v>0.2476780185758514</v>
+        <v>0.0235294117647058</v>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>accountant</t>
+          <t>soldier</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>könyvelő</t>
+          <t>katona</t>
         </is>
       </c>
       <c r="C24" t="n">
-        <v>0.4736842105263158</v>
+        <v>-1.75</v>
       </c>
       <c r="D24" t="inlineStr">
         <is>
-          <t>会计</t>
+          <t>军人</t>
         </is>
       </c>
       <c r="E24" t="n">
-        <v>0.7058823529411765</v>
+        <v>-1.705882352941176</v>
       </c>
       <c r="F24" t="b">
         <v>1</v>
       </c>
       <c r="G24" t="n">
-        <v>0.2321981424148608</v>
+        <v>-0.04411764705882359</v>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>firefighter</t>
+          <t>caretaker</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>tűzoltó</t>
+          <t>gondozó</t>
         </is>
       </c>
       <c r="C25" t="n">
-        <v>-2.210526315789474</v>
+        <v>1</v>
       </c>
       <c r="D25" t="inlineStr">
         <is>
-          <t>消防员</t>
+          <t>护工</t>
         </is>
       </c>
       <c r="E25" t="n">
-        <v>-2</v>
+        <v>1.058823529411765</v>
       </c>
       <c r="F25" t="b">
         <v>1</v>
       </c>
       <c r="G25" t="n">
-        <v>0.2105263157894739</v>
+        <v>-0.05882352941176472</v>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>director</t>
+          <t>cleaner</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>rendező</t>
+          <t>takarító</t>
         </is>
       </c>
       <c r="C26" t="n">
-        <v>-0.7894736842105263</v>
+        <v>1.2</v>
       </c>
       <c r="D26" t="inlineStr">
         <is>
-          <t>导演</t>
+          <t>保洁</t>
         </is>
       </c>
       <c r="E26" t="n">
-        <v>-1</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="F26" t="b">
         <v>1</v>
       </c>
       <c r="G26" t="n">
-        <v>0.2105263157894737</v>
+        <v>-0.09411764705882364</v>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>doctor</t>
+          <t>model</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>orvos</t>
+          <t>modell</t>
         </is>
       </c>
       <c r="C27" t="n">
-        <v>-0.5263157894736842</v>
+        <v>1</v>
       </c>
       <c r="D27" t="inlineStr">
         <is>
-          <t>医生</t>
+          <t>模特</t>
         </is>
       </c>
       <c r="E27" t="n">
-        <v>-0.7058823529411765</v>
+        <v>1.117647058823529</v>
       </c>
       <c r="F27" t="b">
         <v>1</v>
       </c>
       <c r="G27" t="n">
-        <v>0.1795665634674923</v>
+        <v>-0.1176470588235294</v>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>cleaner</t>
+          <t>firefighter</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
         <is>
-          <t>takarító</t>
+          <t>tűzoltó</t>
         </is>
       </c>
       <c r="C28" t="n">
-        <v>1.157894736842105</v>
+        <v>-2.2</v>
       </c>
       <c r="D28" t="inlineStr">
         <is>
-          <t>保洁</t>
+          <t>消防员</t>
         </is>
       </c>
       <c r="E28" t="n">
-        <v>1.294117647058824</v>
+        <v>-2</v>
       </c>
       <c r="F28" t="b">
         <v>1</v>
       </c>
       <c r="G28" t="n">
-        <v>0.1362229102167183</v>
+        <v>-0.2000000000000002</v>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>manager</t>
+          <t>professor</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>menedzser</t>
+          <t>professzor</t>
         </is>
       </c>
       <c r="C29" t="n">
-        <v>-0.631578947368421</v>
+        <v>-0.85</v>
       </c>
       <c r="D29" t="inlineStr">
         <is>
-          <t>高管</t>
+          <t>教授</t>
         </is>
       </c>
       <c r="E29" t="n">
-        <v>-0.7647058823529411</v>
+        <v>-0.6470588235294118</v>
       </c>
       <c r="F29" t="b">
         <v>1</v>
       </c>
       <c r="G29" t="n">
-        <v>0.1331269349845201</v>
+        <v>-0.2029411764705882</v>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>security guard</t>
+          <t>accountant</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>biztonsági őr</t>
+          <t>könyvelő</t>
         </is>
       </c>
       <c r="C30" t="n">
-        <v>-1.947368421052632</v>
+        <v>0.45</v>
       </c>
       <c r="D30" t="inlineStr">
         <is>
-          <t>保安</t>
+          <t>会计</t>
         </is>
       </c>
       <c r="E30" t="n">
-        <v>-2.058823529411764</v>
+        <v>0.7058823529411765</v>
       </c>
       <c r="F30" t="b">
         <v>1</v>
       </c>
       <c r="G30" t="n">
-        <v>0.1114551083591329</v>
+        <v>-0.2558823529411765</v>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>programmer</t>
+          <t>PR specialist</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>programozó</t>
+          <t>PR munkatárs</t>
         </is>
       </c>
       <c r="C31" t="n">
-        <v>-1.368421052631579</v>
+        <v>0.25</v>
       </c>
       <c r="D31" t="inlineStr">
         <is>
-          <t>程序员</t>
+          <t>公关</t>
         </is>
       </c>
       <c r="E31" t="n">
-        <v>-1.470588235294118</v>
+        <v>0.5882352941176471</v>
       </c>
       <c r="F31" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G31" t="n">
-        <v>0.1021671826625388</v>
+        <v>-0.3382352941176471</v>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>dietitian</t>
+          <t>shop assistant</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>dietetikus</t>
+          <t>bolti eladó</t>
         </is>
       </c>
       <c r="C32" t="n">
-        <v>0.6842105263157895</v>
+        <v>0.95</v>
       </c>
       <c r="D32" t="inlineStr">
         <is>
-          <t>营养师</t>
+          <t>导购员</t>
         </is>
       </c>
       <c r="E32" t="n">
-        <v>0.5882352941176471</v>
+        <v>1.294117647058824</v>
       </c>
       <c r="F32" t="b">
         <v>1</v>
       </c>
       <c r="G32" t="n">
-        <v>0.09597523219814241</v>
+        <v>-0.3441176470588236</v>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>judge</t>
+          <t>cashier</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>bíró</t>
+          <t>pénztáros</t>
         </is>
       </c>
       <c r="C33" t="n">
-        <v>-0.2631578947368421</v>
+        <v>1</v>
       </c>
       <c r="D33" t="inlineStr">
         <is>
-          <t>法官</t>
+          <t>收银员</t>
         </is>
       </c>
       <c r="E33" t="n">
-        <v>-0.3529411764705883</v>
+        <v>1.529411764705882</v>
       </c>
       <c r="F33" t="b">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="G33" t="n">
-        <v>0.08978328173374617</v>
+        <v>-0.5294117647058822</v>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>soldier</t>
+          <t>ticketseller</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>katona</t>
+          <t>jegyárus</t>
         </is>
       </c>
       <c r="C34" t="n">
-        <v>-1.789473684210526</v>
+        <v>0.2</v>
       </c>
       <c r="D34" t="inlineStr">
         <is>
-          <t>军人</t>
+          <t>售票员</t>
         </is>
       </c>
       <c r="E34" t="n">
-        <v>-1.705882352941176</v>
+        <v>1</v>
       </c>
       <c r="F34" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G34" t="n">
-        <v>0.08359133126934992</v>
+        <v>-0.8</v>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>CEO</t>
+          <t>receptionist</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>vezérigazgató</t>
+          <t>recepciós</t>
         </is>
       </c>
       <c r="C35" t="n">
-        <v>-1.157894736842105</v>
+        <v>0.7</v>
       </c>
       <c r="D35" t="inlineStr">
         <is>
-          <t>董事长</t>
+          <t>前台</t>
         </is>
       </c>
       <c r="E35" t="n">
-        <v>-1.235294117647059</v>
+        <v>1.588235294117647</v>
       </c>
       <c r="F35" t="b">
         <v>1</v>
       </c>
       <c r="G35" t="n">
-        <v>0.07739938080495357</v>
+        <v>-0.888235294117647</v>
       </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>model</t>
+          <t>teacher</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
         <is>
-          <t>modell</t>
+          <t>tanár</t>
         </is>
       </c>
       <c r="C36" t="n">
-        <v>1.052631578947368</v>
+        <v>0.05</v>
       </c>
       <c r="D36" t="inlineStr">
         <is>
-          <t>模特</t>
+          <t>教师</t>
         </is>
       </c>
       <c r="E36" t="n">
         <v>1.117647058823529</v>
       </c>
       <c r="F36" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G36" t="n">
-        <v>0.06501547987616108</v>
+        <v>-1.067647058823529</v>
       </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
         <is>
-          <t>pathologist</t>
+          <t>waiter</t>
         </is>
       </c>
       <c r="B37" t="inlineStr">
         <is>
-          <t>kórboncnok</t>
+          <t>pincér</t>
         </is>
       </c>
       <c r="C37" t="n">
-        <v>-0.8421052631578947</v>
+        <v>-0.4</v>
       </c>
       <c r="D37" t="inlineStr">
         <is>
-          <t>法医</t>
+          <t>服务员</t>
         </is>
       </c>
       <c r="E37" t="n">
-        <v>-0.8235294117647058</v>
+        <v>0.8823529411764706</v>
       </c>
       <c r="F37" t="b">
         <v>1</v>
       </c>
       <c r="G37" t="n">
-        <v>0.01857585139318885</v>
+        <v>-1.28235294117647</v>
       </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
         <is>
-          <t>caretaker</t>
+          <t>secretary</t>
         </is>
       </c>
       <c r="B38" t="inlineStr">
         <is>
-          <t>gondozó</t>
+          <t>titkár</t>
         </is>
       </c>
       <c r="C38" t="n">
-        <v>1.052631578947368</v>
+        <v>-0.25</v>
       </c>
       <c r="D38" t="inlineStr">
         <is>
-          <t>护工</t>
+          <t>秘书</t>
         </is>
       </c>
       <c r="E38" t="n">
-        <v>1.058823529411765</v>
+        <v>1.411764705882353</v>
       </c>
       <c r="F38" t="b">
-        <v>1</v>
+        <v>0</v>
       </c>
       <c r="G38" t="n">
-        <v>0.006191950464396356</v>
+        <v>-1.661764705882353</v>
       </c>
     </row>
     <row r="39">
@@ -1555,7 +1555,7 @@
         </is>
       </c>
       <c r="C39" t="n">
-        <v>0.4210526315789473</v>
+        <v>0.4</v>
       </c>
       <c r="D39" t="inlineStr"/>
       <c r="E39" t="inlineStr"/>
@@ -1576,7 +1576,7 @@
         </is>
       </c>
       <c r="C40" t="n">
-        <v>0.9473684210526315</v>
+        <v>0.95</v>
       </c>
       <c r="D40" t="inlineStr"/>
       <c r="E40" t="inlineStr"/>
@@ -1618,7 +1618,7 @@
         </is>
       </c>
       <c r="C42" t="n">
-        <v>-1.421052631578947</v>
+        <v>-1.4</v>
       </c>
       <c r="D42" t="inlineStr"/>
       <c r="E42" t="inlineStr"/>
@@ -1660,7 +1660,7 @@
         </is>
       </c>
       <c r="C44" t="n">
-        <v>-0.8421052631578947</v>
+        <v>-0.8</v>
       </c>
       <c r="D44" t="inlineStr"/>
       <c r="E44" t="inlineStr"/>
@@ -1702,7 +1702,7 @@
         </is>
       </c>
       <c r="C46" t="n">
-        <v>-1.684210526315789</v>
+        <v>-1.65</v>
       </c>
       <c r="D46" t="inlineStr"/>
       <c r="E46" t="inlineStr"/>
@@ -1744,7 +1744,7 @@
         </is>
       </c>
       <c r="C48" t="n">
-        <v>0.3157894736842105</v>
+        <v>0.3</v>
       </c>
       <c r="D48" t="inlineStr"/>
       <c r="E48" t="inlineStr"/>
